--- a/publication/web-root/cibmtr-reporting/0.1.6/ValueSet-cibmtr-priority-variables-epic-2021.xlsx
+++ b/publication/web-root/cibmtr-reporting/0.1.6/ValueSet-cibmtr-priority-variables-epic-2021.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-05-04T11:04:44-05:00</t>
+    <t>2023-05-04T21:45:15-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/publication/web-root/cibmtr-reporting/0.1.6/ValueSet-cibmtr-priority-variables-epic-2021.xlsx
+++ b/publication/web-root/cibmtr-reporting/0.1.6/ValueSet-cibmtr-priority-variables-epic-2021.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-05-04T21:45:15-05:00</t>
+    <t>2023-05-05T10:46:24-05:00</t>
   </si>
   <si>
     <t>Publisher</t>
